--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T08:50:17+00:00</t>
+    <t>2023-02-14T08:50:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-viral-load-specimen.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="351">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T08:50:38+00:00</t>
+    <t>2023-02-14T14:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -535,13 +535,7 @@
     <t>The type can change the way that a specimen is handled and drives what kind of analyses can properly be performed on the specimen. It is frequently used in diagnostic work flow decision making systems.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The type of the specimen.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0487</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-specimen-type</t>
   </si>
   <si>
     <t>.code</t>
@@ -797,6 +791,9 @@
   </si>
   <si>
     <t>A coded value specifying the technique that is used to perform the procedure.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>The  technique that is used to perform the procedure.</t>
@@ -1440,7 +1437,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.8984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.6953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.63671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -2913,7 +2910,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>84</v>
@@ -2963,13 +2960,11 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="Z14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3002,21 +2997,21 @@
         <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3039,17 +3034,17 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3098,7 +3093,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3113,10 +3108,10 @@
         <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>76</v>
@@ -3124,10 +3119,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3150,13 +3145,13 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3207,7 +3202,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3222,21 +3217,21 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3259,16 +3254,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3318,7 +3313,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3333,7 +3328,7 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3344,10 +3339,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3370,16 +3365,16 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3429,7 +3424,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3444,21 +3439,21 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3481,13 +3476,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3538,7 +3533,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3553,21 +3548,21 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3590,13 +3585,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3647,7 +3642,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3662,7 +3657,7 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3673,10 +3668,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3705,7 +3700,7 @@
         <v>131</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>133</v>
@@ -3758,7 +3753,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3773,7 +3768,7 @@
         <v>135</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3784,14 +3779,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3813,10 +3808,10 @@
         <v>130</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>133</v>
@@ -3871,7 +3866,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3897,10 +3892,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3923,13 +3918,13 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3980,7 +3975,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3995,21 +3990,21 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4032,13 +4027,13 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4077,17 +4072,17 @@
         <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4102,24 +4097,24 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>76</v>
@@ -4141,13 +4136,13 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4198,7 +4193,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4213,21 +4208,21 @@
         <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4250,13 +4245,13 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4307,7 +4302,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4325,7 +4320,7 @@
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4333,10 +4328,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4359,13 +4354,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4416,7 +4411,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4431,21 +4426,21 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4471,10 +4466,10 @@
         <v>164</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4501,14 +4496,14 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4525,7 +4520,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4540,21 +4535,21 @@
         <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4580,13 +4575,13 @@
         <v>164</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4612,14 +4607,14 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4636,7 +4631,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4651,21 +4646,21 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4688,19 +4683,19 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4725,14 +4720,14 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4749,7 +4744,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4770,15 +4765,15 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4801,13 +4796,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4858,7 +4853,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4873,7 +4868,7 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4884,10 +4879,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4910,13 +4905,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4967,7 +4962,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4982,7 +4977,7 @@
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4993,10 +4988,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5025,7 +5020,7 @@
         <v>131</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>133</v>
@@ -5078,7 +5073,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5093,7 +5088,7 @@
         <v>135</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5104,14 +5099,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5133,10 +5128,10 @@
         <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>133</v>
@@ -5191,7 +5186,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5217,10 +5212,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5243,13 +5238,13 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5300,7 +5295,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5315,7 +5310,7 @@
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5326,10 +5321,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5355,10 +5350,10 @@
         <v>164</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5385,14 +5380,14 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5409,7 +5404,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5424,7 +5419,7 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5435,10 +5430,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5461,13 +5456,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5518,7 +5513,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5533,21 +5528,21 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5570,13 +5565,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5627,7 +5622,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5642,7 +5637,7 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5653,10 +5648,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5679,13 +5674,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5736,7 +5731,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5751,7 +5746,7 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -5762,10 +5757,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5788,13 +5783,13 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5845,7 +5840,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5860,7 +5855,7 @@
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5871,10 +5866,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5903,7 +5898,7 @@
         <v>131</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>133</v>
@@ -5956,7 +5951,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -5971,7 +5966,7 @@
         <v>135</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -5982,14 +5977,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6011,10 +6006,10 @@
         <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>133</v>
@@ -6069,7 +6064,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6095,10 +6090,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6124,10 +6119,10 @@
         <v>142</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6178,7 +6173,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6199,15 +6194,15 @@
         <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6230,13 +6225,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6287,7 +6282,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6302,7 +6297,7 @@
         <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6313,10 +6308,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6342,10 +6337,10 @@
         <v>164</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6372,14 +6367,14 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6396,7 +6391,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6411,21 +6406,21 @@
         <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6448,13 +6443,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6505,7 +6500,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6520,21 +6515,21 @@
         <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6557,13 +6552,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6614,7 +6609,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6629,21 +6624,21 @@
         <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6666,13 +6661,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6699,14 +6694,14 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
       </c>
@@ -6723,7 +6718,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6738,21 +6733,21 @@
         <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>338</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6778,16 +6773,16 @@
         <v>164</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -6812,14 +6807,14 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
       </c>
@@ -6836,7 +6831,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6857,15 +6852,15 @@
         <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6888,13 +6883,13 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>50</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6945,7 +6940,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -6960,13 +6955,13 @@
         <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T14:33:23+00:00</t>
+    <t>2023-02-14T14:33:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T14:33:42+00:00</t>
+    <t>2023-02-15T09:10:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile is to record the Viral sample collection date and related details.</t>
+    <t>The test sample that was collected for the initiated lab order</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:10:23+00:00</t>
+    <t>2023-02-15T09:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:11:23+00:00</t>
+    <t>2023-02-15T10:38:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Specimen-resource-dev--FIG-48/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/Specimen-resource-dev--FIG-48/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:38:48+00:00</t>
+    <t>2023-02-15T10:39:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
